--- a/DATA_goal/Junction_Flooding_203.xlsx
+++ b/DATA_goal/Junction_Flooding_203.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41635.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>23.77</v>
+        <v>2.38</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>24.47</v>
+        <v>2.45</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.47</v>
+        <v>1.35</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.65</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>125.37</v>
+        <v>12.54</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.05</v>
+        <v>2.4</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>21.87</v>
+        <v>2.19</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41635.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.24</v>
+        <v>1.22</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.64</v>
+        <v>0.46</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.13</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41635.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.81</v>
+        <v>2.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.98</v>
+        <v>2.3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.94</v>
+        <v>3.59</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>150.58</v>
+        <v>15.06</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.84</v>
+        <v>2.88</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.36</v>
+        <v>3.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41635.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.96</v>
+        <v>1.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.21</v>
+        <v>1.42</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.35</v>
+        <v>0.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>26.79</v>
+        <v>2.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>91.11</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>18.17</v>
+        <v>1.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>24.56</v>
+        <v>2.46</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41635.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.15</v>
+        <v>1.32</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>28.83</v>
+        <v>2.88</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>23.33</v>
+        <v>2.33</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>39.25</v>
+        <v>3.93</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10.37</v>
+        <v>1.04</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>11.56</v>
+        <v>1.16</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>150.61</v>
+        <v>15.06</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>28.97</v>
+        <v>2.9</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>19.37</v>
+        <v>1.94</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.19</v>
+        <v>1.02</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>19.35</v>
+        <v>1.94</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>35.56</v>
+        <v>3.56</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41635.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1.47</v>
+        <v>0.15</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41635.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>17.34</v>
+        <v>1.73</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="P8" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>8.76</v>
       </c>
-      <c r="Q8" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S8" s="4" t="n">
+      <c r="U8" s="4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.32</v>
       </c>
-      <c r="T8" s="4" t="n">
-        <v>87.61</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>19.54</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41635.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>36.78</v>
+        <v>3.68</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>30.09</v>
+        <v>3.01</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.71</v>
+        <v>4.87</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.45</v>
+        <v>2.05</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.18</v>
+        <v>0.92</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.12</v>
+        <v>1.11</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>194.1</v>
+        <v>19.41</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>36.94</v>
+        <v>3.69</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>24.87</v>
+        <v>2.49</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.26</v>
+        <v>2.43</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.52</v>
+        <v>1.55</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>44.14</v>
+        <v>4.41</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41635.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>34.28</v>
+        <v>3.43</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>28.05</v>
+        <v>2.81</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>48.65</v>
+        <v>4.86</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.57</v>
+        <v>0.86</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.35</v>
+        <v>1.04</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>180.38</v>
+        <v>18.04</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>34.51</v>
+        <v>3.45</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>23.24</v>
+        <v>2.32</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.72</v>
+        <v>2.37</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>44.25</v>
+        <v>4.42</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_203.xlsx
+++ b/DATA_goal/Junction_Flooding_203.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41635.34027777778</v>
+        <v>44884.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="M2" s="4" t="n">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.68</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.18</v>
+        <v>0.88</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.19</v>
+        <v>1.57</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.01</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41635.34722222222</v>
+        <v>44884.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.71</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>1.22</v>
+        <v>19.87</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.35</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.46</v>
+        <v>2.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.15</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.87</v>
+        <v>4.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41635.35416666666</v>
+        <v>44884.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.31</v>
+        <v>0.66</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="W4" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S4" s="4" t="n">
+      <c r="X4" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.24</v>
+        <v>2.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.53</v>
+        <v>0.26</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.2</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41635.36111111111</v>
+        <v>44884.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6</v>
+        <v>1.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.8</v>
+        <v>3.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.42</v>
+        <v>2.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.63</v>
+        <v>1.05</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.68</v>
+        <v>4.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1</v>
+        <v>1.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.62</v>
+        <v>1.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.72</v>
+        <v>1.22</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.77</v>
+        <v>1.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.09</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.91</v>
+        <v>1.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>15.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.82</v>
+        <v>3.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6</v>
+        <v>1.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.2</v>
+        <v>2.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.63</v>
+        <v>1.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.31</v>
+        <v>2.05</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.76</v>
+        <v>1.28</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.46</v>
+        <v>3.69</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.75</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41635.36805555555</v>
+        <v>44884.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.32</v>
+        <v>11.42</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.98</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.79</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.88</v>
+        <v>25.08</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.33</v>
+        <v>20.33</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.03</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.93</v>
+        <v>36.19</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.6</v>
+        <v>13.89</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.71</v>
+        <v>6.36</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.04</v>
+        <v>8.92</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.16</v>
+        <v>10.06</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.23</v>
+        <v>10.75</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.32</v>
+        <v>2.91</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.04</v>
+        <v>9.02</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.47</v>
+        <v>12.72</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.88</v>
+        <v>7.72</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>15.06</v>
+        <v>130.02</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.9</v>
+        <v>25.27</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.96</v>
+        <v>8.33</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.94</v>
+        <v>16.87</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.02</v>
+        <v>8.98</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.15</v>
+        <v>1.19</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.94</v>
+        <v>17.89</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.85</v>
+        <v>7.36</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.75</v>
+        <v>6.57</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.89</v>
+        <v>7.69</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.22</v>
+        <v>10.62</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.56</v>
+        <v>32.93</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.53</v>
+        <v>4.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41635.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41635.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41635.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41635.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41635.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>59.09</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.03</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_203.xlsx
+++ b/DATA_goal/Junction_Flooding_203.xlsx
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44884.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.56</v>
+        <v>95.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44884.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.76</v>
+        <v>37.59</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.01</v>
+        <v>30.06</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.89</v>
+        <v>48.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.05</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.93</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.77</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>198.68</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>37.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.5</v>
+        <v>24.97</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.54</v>
+        <v>25.45</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.45</v>
+        <v>44.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44884.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.14</v>
+        <v>11.41</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.43</v>
+        <v>24.29</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AD4" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44884.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.03</v>
+        <v>30.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.45</v>
+        <v>24.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.08</v>
+        <v>40.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.86</v>
+        <v>158.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.29</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.69</v>
+        <v>36.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_203.xlsx
+++ b/DATA_goal/Junction_Flooding_203.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,7 +658,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>5.971</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2.73</v>
@@ -667,91 +667,91 @@
         <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>13.342</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>5.281</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>4.378</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.239</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>7.412</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>2.471</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>1.124</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>95.593</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>18.541</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.31</v>
+        <v>11.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.84</v>
+        <v>6.838</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>10.924</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>5.296</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>5.767</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>2.035</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>15.721</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.104</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44884.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.06</v>
+        <v>17.058</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.71</v>
+        <v>12.711</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.645</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.59</v>
+        <v>37.586</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>30.06</v>
+        <v>30.061</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.77</v>
+        <v>12.774</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.91</v>
+        <v>48.914</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.83</v>
+        <v>20.833</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.393000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.05</v>
+        <v>13.051</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.06</v>
+        <v>15.064</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.15</v>
+        <v>16.148</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.43</v>
+        <v>4.433</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.93</v>
+        <v>18.929</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.77</v>
+        <v>11.771</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.836</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.68</v>
+        <v>198.681</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.78</v>
+        <v>37.784</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.97</v>
+        <v>24.973</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.5</v>
+        <v>13.499</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.84</v>
+        <v>1.836</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>25.45</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>11.035</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.94</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.55</v>
+        <v>11.547</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.02</v>
+        <v>16.018</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.945</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.5</v>
+        <v>44.498</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.85</v>
+        <v>6.854</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44884.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.551</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>14.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.41</v>
+        <v>11.411</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.29</v>
+        <v>24.292</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>8.050000000000001</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.74</v>
+        <v>3.744</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.759</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.86</v>
+        <v>5.858</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.35</v>
+        <v>6.352</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.736</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.26</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.28</v>
+        <v>7.278</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.76</v>
+        <v>4.757</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.418</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.81999999999999</v>
+        <v>72.818</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.91</v>
+        <v>14.907</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.86</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.28</v>
+        <v>5.281</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.72</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.1</v>
+        <v>12.104</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.29</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.95</v>
+        <v>3.948</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.56</v>
+        <v>4.565</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.25</v>
+        <v>6.252</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.627</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.42</v>
+        <v>22.424</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.58</v>
+        <v>2.578</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>12.58</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44884.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>130.02</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_203.xlsx
+++ b/DATA_goal/Junction_Flooding_203.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44884.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.79</v>
+        <v>13.794</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.32</v>
+        <v>10.317</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.977</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.3</v>
+        <v>30.303</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.55</v>
+        <v>24.549</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.51</v>
+        <v>10.515</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.84</v>
+        <v>40.841</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.79</v>
+        <v>16.788</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.77</v>
+        <v>10.772</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.16</v>
+        <v>12.155</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.98</v>
+        <v>12.984</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.52</v>
+        <v>3.524</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.34</v>
+        <v>15.344</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.34</v>
+        <v>9.337</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.305</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.576</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.61</v>
+        <v>158.614</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.42</v>
+        <v>30.418</v>
       </c>
       <c r="V5" s="4" t="n">
+        <v>10.064</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>20.286</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>10.846</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>20.494</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>8.888999999999999</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>7.939</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>9.292</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>12.838</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>36.903</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>5.591</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>12.582</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44884.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <v>10.06</v>
       </c>
-      <c r="W5" s="4" t="n">
-        <v>20.29</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>20.49</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="AE5" s="4" t="n">
+      <c r="M6" s="4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>12.58</v>
+      <c r="T6" s="4" t="n">
+        <v>130.02</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>25.27</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.89</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_203.xlsx
+++ b/DATA_goal/Junction_Flooding_203.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44884.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.794</v>
+        <v>13.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.317</v>
+        <v>10.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.303</v>
+        <v>30.3</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.549</v>
+        <v>24.55</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.515</v>
+        <v>10.51</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.841</v>
+        <v>40.84</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.788</v>
+        <v>16.79</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.647</v>
+        <v>7.65</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.772</v>
+        <v>10.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.155</v>
+        <v>12.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.984</v>
+        <v>12.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.524</v>
+        <v>3.52</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.903</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.344</v>
+        <v>15.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.337</v>
+        <v>9.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.576</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.614</v>
+        <v>158.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.418</v>
+        <v>30.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.064</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.286</v>
+        <v>20.29</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.846</v>
+        <v>10.85</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.447</v>
+        <v>1.45</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.494</v>
+        <v>20.49</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.939</v>
+        <v>7.94</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.292</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.838</v>
+        <v>12.84</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.903</v>
+        <v>36.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.591</v>
+        <v>5.59</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.582</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44884.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>130.02</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>16.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.93</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.41</v>
+        <v>12.58</v>
       </c>
     </row>
   </sheetData>
